--- a/nuno-dataset/test-oxigen-01/content/results/metrics_9_5.xlsx
+++ b/nuno-dataset/test-oxigen-01/content/results/metrics_9_5.xlsx
@@ -482,772 +482,772 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.708679577986097</v>
+        <v>0.824505913402631</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1441034523201261</v>
+        <v>0.7714446812286466</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7186383033230619</v>
+        <v>0.5056059913408425</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6399923800406672</v>
+        <v>0.6659461179673163</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3224058449268341</v>
+        <v>0.1942202299833298</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3901937305927277</v>
+        <v>0.238774299621582</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4434466660022736</v>
+        <v>0.4835389852523804</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4152542352676392</v>
+        <v>0.3539574444293976</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_9_5_1</t>
+          <t>model_9_5_20</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7136653653995537</v>
+        <v>0.8370256563421017</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1501955473388483</v>
+        <v>0.6944868456081168</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7052602345628499</v>
+        <v>0.2843430719266707</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6326651976827844</v>
+        <v>0.5296644144321598</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3168880641460419</v>
+        <v>0.180364578962326</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3874164223670959</v>
+        <v>0.3191729784011841</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4645315110683441</v>
+        <v>0.6999437808990479</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4237058162689209</v>
+        <v>0.4983590543270111</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_9_5_4</t>
+          <t>model_9_5_19</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7145769541715215</v>
+        <v>0.8384879696246339</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07588101717134399</v>
+        <v>0.6942746768925516</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5822119443081714</v>
+        <v>0.2965814975077447</v>
       </c>
       <c r="E4" t="n">
-        <v>0.53799482466607</v>
+        <v>0.534869691937284</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3158791959285736</v>
+        <v>0.178746223449707</v>
       </c>
       <c r="G4" t="n">
-        <v>0.421295553445816</v>
+        <v>0.3193946480751038</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6584646701812744</v>
+        <v>0.6879740953445435</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5329042077064514</v>
+        <v>0.4928436875343323</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_9_5_2</t>
+          <t>model_9_5_22</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7148934323561598</v>
+        <v>0.8389620783597548</v>
       </c>
       <c r="C5" t="n">
-        <v>0.191031650739007</v>
+        <v>0.6954120463599007</v>
       </c>
       <c r="D5" t="n">
-        <v>0.669216400036895</v>
+        <v>0.2958535103341088</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6180333815627757</v>
+        <v>0.5351471719051999</v>
       </c>
       <c r="F5" t="n">
-        <v>0.315528929233551</v>
+        <v>0.1782215386629105</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3687996864318848</v>
+        <v>0.318206399679184</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5213392376899719</v>
+        <v>0.6886860728263855</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4405830502510071</v>
+        <v>0.4925496578216553</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_9_5_5</t>
+          <t>model_9_5_15</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7154105502489958</v>
+        <v>0.8396524799798972</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07152823545925724</v>
+        <v>0.723133623107053</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5647369166808786</v>
+        <v>0.2769035587737952</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5258473409107283</v>
+        <v>0.5413858476635334</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3149566650390625</v>
+        <v>0.1774574518203735</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4232799410820007</v>
+        <v>0.2892453372478485</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6860066056251526</v>
+        <v>0.7072199583053589</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5469158887863159</v>
+        <v>0.4859392642974854</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_9_5_3</t>
+          <t>model_9_5_21</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7371947874065367</v>
+        <v>0.8397871543282813</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2397204091032115</v>
+        <v>0.6975386231101776</v>
       </c>
       <c r="D7" t="n">
-        <v>0.651075601105082</v>
+        <v>0.2999968776081217</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6165565477581807</v>
+        <v>0.5380569541951716</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2908479571342468</v>
+        <v>0.1773084253072739</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3466030359268188</v>
+        <v>0.3159847855567932</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5499304533004761</v>
+        <v>0.6846336722373962</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4422865211963654</v>
+        <v>0.4894664883613586</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_9_5_6</t>
+          <t>model_9_5_23</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7373465578145402</v>
+        <v>0.8397907632144309</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1220192565150471</v>
+        <v>0.6994013039949074</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5099650611773033</v>
+        <v>0.2973273813008819</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5011936615309533</v>
+        <v>0.5378696044415483</v>
       </c>
       <c r="F8" t="n">
-        <v>0.290679931640625</v>
+        <v>0.1773044019937515</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4002616703510284</v>
+        <v>0.3140388131141663</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7723310589790344</v>
+        <v>0.6872445344924927</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5753529667854309</v>
+        <v>0.4896650314331055</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_9_5_7</t>
+          <t>model_9_5_14</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7910865740578995</v>
+        <v>0.84018657000726</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01804232876924694</v>
+        <v>0.7241550945945614</v>
       </c>
       <c r="D9" t="n">
-        <v>0.534455676343514</v>
+        <v>0.280158634629333</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4951844462860331</v>
+        <v>0.5433331927940408</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2312055975198746</v>
+        <v>0.1768663674592972</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4476635754108429</v>
+        <v>0.2881782352924347</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7337321043014526</v>
+        <v>0.7040363550186157</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5822843313217163</v>
+        <v>0.4838759005069733</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_9_5_8</t>
+          <t>model_9_5_24</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7928576146220442</v>
+        <v>0.8402021772882751</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05642523252281828</v>
+        <v>0.7008309234805101</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5196277304725699</v>
+        <v>0.2985759682522142</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4936816298126472</v>
+        <v>0.539158178554034</v>
       </c>
       <c r="F10" t="n">
-        <v>0.229245588183403</v>
+        <v>0.1768490970134735</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4301652312278748</v>
+        <v>0.3125452399253845</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7571019530296326</v>
+        <v>0.6860233545303345</v>
       </c>
       <c r="I10" t="n">
-        <v>0.584017813205719</v>
+        <v>0.4882996380329132</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_9_5_9</t>
+          <t>model_9_5_12</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8293412466757536</v>
+        <v>0.8403411661226758</v>
       </c>
       <c r="C11" t="n">
-        <v>0.568875102637911</v>
+        <v>0.7291997507779315</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4808502100092681</v>
+        <v>0.2791844685289004</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5759737704685465</v>
+        <v>0.5455427988970791</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1888689547777176</v>
+        <v>0.1766952723264694</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1965450495481491</v>
+        <v>0.2829080522060394</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8182182312011719</v>
+        <v>0.7049890756607056</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4890970885753632</v>
+        <v>0.4815346896648407</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_9_5_10</t>
+          <t>model_9_5_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8390386277810672</v>
+        <v>0.8404094810515013</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6500136953817048</v>
+        <v>0.7222957669556245</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4834440996627034</v>
+        <v>0.2842859318134615</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5946192647187813</v>
+        <v>0.5441552721324268</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1781368255615234</v>
+        <v>0.176619678735733</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1595548689365387</v>
+        <v>0.2901206910610199</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8141300678253174</v>
+        <v>0.6999996900558472</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4675902724266052</v>
+        <v>0.4830048084259033</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_9_5_11</t>
+          <t>model_9_5_18</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.856151954635071</v>
+        <v>0.8408079493895927</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7054609251315422</v>
+        <v>0.6970762149191156</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4955501271522633</v>
+        <v>0.3125221968343194</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6140053618995369</v>
+        <v>0.5432560322778508</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1591974049806595</v>
+        <v>0.1761786937713623</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1342770755290985</v>
+        <v>0.3164678514003754</v>
       </c>
       <c r="H13" t="n">
-        <v>0.7950500845909119</v>
+        <v>0.6723833680152893</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4452292025089264</v>
+        <v>0.4839576780796051</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_9_5_12</t>
+          <t>model_9_5_16</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8745874948613529</v>
+        <v>0.8412833057612754</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7434511754550505</v>
+        <v>0.7253215414830709</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5530096345356046</v>
+        <v>0.2864393442918494</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6589014422216104</v>
+        <v>0.5466700813750059</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1387946903705597</v>
+        <v>0.1756526082754135</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1169577538967133</v>
+        <v>0.2869596183300018</v>
       </c>
       <c r="H14" t="n">
-        <v>0.7044895887374878</v>
+        <v>0.697893500328064</v>
       </c>
       <c r="I14" t="n">
-        <v>0.393443375825882</v>
+        <v>0.4803401827812195</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_9_5_13</t>
+          <t>model_9_5_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9128644133590279</v>
+        <v>0.8413998442578267</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6948322786417763</v>
+        <v>0.7327726077002206</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7218653077685369</v>
+        <v>0.2833066186498167</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7573037129015108</v>
+        <v>0.5491985282980372</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09643340855836868</v>
+        <v>0.1755236238241196</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1391225606203079</v>
+        <v>0.2791754007339478</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4383606910705566</v>
+        <v>0.7009574770927429</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2799403667449951</v>
+        <v>0.4776611328125</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_9_5_14</t>
+          <t>model_9_5_17</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9226280191043745</v>
+        <v>0.8416908946987862</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7316630398462691</v>
+        <v>0.7005604888362762</v>
       </c>
       <c r="D16" t="n">
-        <v>0.749456198347358</v>
+        <v>0.3164590446437542</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7827512915868851</v>
+        <v>0.5467849680312068</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08562798053026199</v>
+        <v>0.1752015203237534</v>
       </c>
       <c r="G16" t="n">
-        <v>0.122331827878952</v>
+        <v>0.3128277659416199</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3948754668235779</v>
+        <v>0.6685329675674438</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2505876123905182</v>
+        <v>0.4802184998989105</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_9_5_16</t>
+          <t>model_9_5_10</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9241290023526391</v>
+        <v>0.8417154317231208</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7363343745661692</v>
+        <v>0.7368233970626197</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7539588976658583</v>
+        <v>0.2822531735872216</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7866239538394668</v>
+        <v>0.5508555080507106</v>
       </c>
       <c r="F17" t="n">
-        <v>0.08396684378385544</v>
+        <v>0.1751743704080582</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1202022209763527</v>
+        <v>0.2749435007572174</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3877788186073303</v>
+        <v>0.7019877433776855</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2461206465959549</v>
+        <v>0.4759053587913513</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_9_5_15</t>
+          <t>model_9_5_9</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9241840794808395</v>
+        <v>0.8471968432362729</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7346291173662028</v>
+        <v>0.7583141331038847</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7552535752925638</v>
+        <v>0.3061533238966727</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7870996943179112</v>
+        <v>0.5724547952079551</v>
       </c>
       <c r="F18" t="n">
-        <v>0.08390588313341141</v>
+        <v>0.1691080778837204</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1209796294569969</v>
+        <v>0.2524918913841248</v>
       </c>
       <c r="H18" t="n">
-        <v>0.385738343000412</v>
+        <v>0.6786123514175415</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2455719262361526</v>
+        <v>0.4530191719532013</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_9_5_17</t>
+          <t>model_9_5_8</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9251459275575713</v>
+        <v>0.8481195161235497</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7389595438149849</v>
+        <v>0.7603687204651407</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7571627028019831</v>
+        <v>0.3113660863907747</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7892331747109049</v>
+        <v>0.5757914422429034</v>
       </c>
       <c r="F19" t="n">
-        <v>0.08284140378236771</v>
+        <v>0.1680869311094284</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1190054416656494</v>
+        <v>0.2503454685211182</v>
       </c>
       <c r="H19" t="n">
-        <v>0.3827294111251831</v>
+        <v>0.6735141277313232</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2431109696626663</v>
+        <v>0.449483722448349</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_9_5_19</t>
+          <t>model_9_5_1</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.926202242725367</v>
+        <v>0.8515598318919105</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7452073795347414</v>
+        <v>0.7706159695191763</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7580475857934625</v>
+        <v>0.5951439863642547</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7911095004028943</v>
+        <v>0.7044063754386047</v>
       </c>
       <c r="F20" t="n">
-        <v>0.08167237043380737</v>
+        <v>0.1642795354127884</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1161571219563484</v>
+        <v>0.2396400570869446</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3813347816467285</v>
+        <v>0.3959668874740601</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2409467399120331</v>
+        <v>0.3132056593894958</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_9_5_18</t>
+          <t>model_9_5_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9265981512609208</v>
+        <v>0.8543389337770623</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7432295540443505</v>
+        <v>0.828514870528325</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7618803089800145</v>
+        <v>0.3331380681400345</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7931601719511632</v>
+        <v>0.6208194118344839</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08123421669006348</v>
+        <v>0.1612038910388947</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1170587912201881</v>
+        <v>0.1791524291038513</v>
       </c>
       <c r="H21" t="n">
-        <v>0.3752941191196442</v>
+        <v>0.6522201299667358</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2385813742876053</v>
+        <v>0.4017728865146637</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_9_5_20</t>
+          <t>model_9_5_7</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9272454808391635</v>
+        <v>0.8571195319836498</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7486758860516687</v>
+        <v>0.8022401116732644</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7619964255398481</v>
+        <v>0.3602565608365512</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7943743905876026</v>
+        <v>0.6188845034755199</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08051782101392746</v>
+        <v>0.1581265777349472</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1145758628845215</v>
+        <v>0.2066019326448441</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3751111030578613</v>
+        <v>0.6256970763206482</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2371808290481567</v>
+        <v>0.4038230776786804</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_9_5_22</t>
+          <t>model_9_5_6</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9276539690556329</v>
+        <v>0.8592788059116356</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7495116942982691</v>
+        <v>0.8465359501461609</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7627944205065661</v>
+        <v>0.3441920021586388</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7950622513628602</v>
+        <v>0.6350280415960599</v>
       </c>
       <c r="F23" t="n">
-        <v>0.08006574213504791</v>
+        <v>0.155736893415451</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1141948327422142</v>
+        <v>0.1603256016969681</v>
       </c>
       <c r="H23" t="n">
-        <v>0.3738534152507782</v>
+        <v>0.6414089202880859</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2363873869180679</v>
+        <v>0.3867177069187164</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_9_5_21</t>
+          <t>model_9_5_4</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9277303869857467</v>
+        <v>0.8631508616369127</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7518138542639156</v>
+        <v>0.7789175909102253</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7627476233907866</v>
+        <v>0.5061207616409631</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7955143266812856</v>
+        <v>0.670070168334539</v>
       </c>
       <c r="F24" t="n">
-        <v>0.07998117059469223</v>
+        <v>0.1514516770839691</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1131453141570091</v>
+        <v>0.2309672236442566</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3739271759986877</v>
+        <v>0.4830355048179626</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2358659505844116</v>
+        <v>0.3495876789093018</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_9_5_23</t>
+          <t>model_9_5_3</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9279091267657538</v>
+        <v>0.8676089923079301</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7514751045382811</v>
+        <v>0.7669675457061988</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7630491314605921</v>
+        <v>0.5793066385925987</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7956369202326408</v>
+        <v>0.695622792787266</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0797833576798439</v>
+        <v>0.1465178281068802</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1132997423410416</v>
+        <v>0.2434515953063965</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3734519779682159</v>
+        <v>0.4114565253257751</v>
       </c>
       <c r="I25" t="n">
-        <v>0.235724538564682</v>
+        <v>0.3225125968456268</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_9_5_24</t>
+          <t>model_9_5_2</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9281003035504045</v>
+        <v>0.8772586786608819</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7512028057083291</v>
+        <v>0.7819118475000837</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7637907567626082</v>
+        <v>0.6836700712254017</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7960569208410897</v>
+        <v>0.748756284738944</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07957177609205246</v>
+        <v>0.1358384788036346</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1134238764643669</v>
+        <v>0.2278390973806381</v>
       </c>
       <c r="H26" t="n">
-        <v>0.3722831010818481</v>
+        <v>0.3093844950199127</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2352400869131088</v>
+        <v>0.2662133276462555</v>
       </c>
     </row>
   </sheetData>
